--- a/server9/pre_info_new.xlsx
+++ b/server9/pre_info_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="704"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="704" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sales_rep" sheetId="1" r:id="rId1"/>
@@ -331,9 +331,6 @@
     <t>保险费用紧张，口服抗生素受到限制，市场出现明显负增长。降糖药推荐病人药店自己购买，院内市场下降。</t>
   </si>
   <si>
-    <t>这是一家三级医院。700张病床。建立全国皮肤研究中心，打造皮肤科研能力，是皮肤领域的最大医院。作为综合医院，抗生素和糖尿病产品也使用。</t>
-  </si>
-  <si>
     <t>由于新扩建的外科病房投入使用，外科病人数量增长一倍。新的皮肤病用药进入医院开始销售，推动皮肤市场增长</t>
   </si>
   <si>
@@ -414,6 +411,10 @@
   </si>
   <si>
     <t>小宋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一家三级医院。700张病床。医院目前处于高速发展中，销售潜力不小，目标建立全国皮肤研究中心，打造皮肤科研能力，是皮肤领域的最大医院。作为综合医院，抗生素和糖尿病产品也使用。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1038,7 +1039,7 @@
     </row>
     <row r="2" spans="1:13" ht="57">
       <c r="A2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>13</v>
@@ -1202,7 +1203,7 @@
     </row>
     <row r="6" spans="1:13" ht="28.5">
       <c r="A6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>31</v>
@@ -4676,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4705,132 +4706,132 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="54">
+    <row r="2" spans="1:5" ht="67.5">
       <c r="A2" s="28" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="29"/>
+        <v>90</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>92</v>
+      </c>
       <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:5" ht="67.5">
+    <row r="3" spans="1:5" ht="54">
       <c r="A3" s="28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="27"/>
+        <v>94</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="67.5">
       <c r="A4" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>94</v>
       </c>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" ht="54">
       <c r="A5" s="28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>97</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" ht="54">
       <c r="A6" s="28" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27" t="s">
         <v>99</v>
       </c>
+      <c r="C6" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" ht="54">
       <c r="A7" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" ht="54">
       <c r="A8" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>101</v>
       </c>
       <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" ht="54">
       <c r="A9" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="27" t="s">
         <v>91</v>
       </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" ht="54">
+    <row r="10" spans="1:5" ht="27">
       <c r="A10" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>91</v>
-      </c>
+      <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:5" ht="27">
+    <row r="11" spans="1:5" ht="54">
       <c r="A11" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>104</v>
+        <v>78</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="27"/>
     </row>
   </sheetData>
@@ -4857,10 +4858,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
         <v>105</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4933,10 +4934,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5026,37 +5027,37 @@
         <v>34</v>
       </c>
       <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>112</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>114</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>115</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>116</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>117</v>
-      </c>
-      <c r="N1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6864,37 +6865,37 @@
         <v>34</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G1" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="L1" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="N1" s="30" t="s">
         <v>117</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -8660,7 +8661,7 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
